--- a/PythonResources/Data/Consumption/Sympheny/base_1560_coo.xlsx
+++ b/PythonResources/Data/Consumption/Sympheny/base_1560_coo.xlsx
@@ -831,7 +831,7 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>3.05462082175947</v>
+        <v>3.054620821759469</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -863,7 +863,7 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>0.8180491902154132</v>
+        <v>0.8180491902154131</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1039,7 +1039,7 @@
         <v>87</v>
       </c>
       <c r="B87">
-        <v>21.42255509882063</v>
+        <v>21.42255509882062</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -2159,7 +2159,7 @@
         <v>227</v>
       </c>
       <c r="B227">
-        <v>1.243397842176557</v>
+        <v>1.243397842176556</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -2183,7 +2183,7 @@
         <v>230</v>
       </c>
       <c r="B230">
-        <v>5.228035644472007</v>
+        <v>5.228035644472006</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -2599,7 +2599,7 @@
         <v>282</v>
       </c>
       <c r="B282">
-        <v>2.005329789909096</v>
+        <v>2.005329789909095</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -3351,7 +3351,7 @@
         <v>376</v>
       </c>
       <c r="B376">
-        <v>4.504091564770752</v>
+        <v>4.504091564770751</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -3711,7 +3711,7 @@
         <v>421</v>
       </c>
       <c r="B421">
-        <v>0.4092062991516766</v>
+        <v>0.4092062991516765</v>
       </c>
     </row>
     <row r="422" spans="1:2">
@@ -3719,7 +3719,7 @@
         <v>422</v>
       </c>
       <c r="B422">
-        <v>0.466278953220587</v>
+        <v>0.4662789532205869</v>
       </c>
     </row>
     <row r="423" spans="1:2">
@@ -6951,7 +6951,7 @@
         <v>826</v>
       </c>
       <c r="B826">
-        <v>0.7644670122169593</v>
+        <v>0.7644670122169592</v>
       </c>
     </row>
     <row r="827" spans="1:2">
@@ -11431,7 +11431,7 @@
         <v>1386</v>
       </c>
       <c r="B1386">
-        <v>0.8095765064877136</v>
+        <v>0.8095765064877135</v>
       </c>
     </row>
     <row r="1387" spans="1:2">
@@ -11583,7 +11583,7 @@
         <v>1405</v>
       </c>
       <c r="B1405">
-        <v>5.270296488246973</v>
+        <v>5.270296488246972</v>
       </c>
     </row>
     <row r="1406" spans="1:2">
@@ -11607,7 +11607,7 @@
         <v>1408</v>
       </c>
       <c r="B1408">
-        <v>30.66812576967782</v>
+        <v>30.66812576967781</v>
       </c>
     </row>
     <row r="1409" spans="1:2">
@@ -11615,7 +11615,7 @@
         <v>1409</v>
       </c>
       <c r="B1409">
-        <v>24.20133745899204</v>
+        <v>24.20133745899203</v>
       </c>
     </row>
     <row r="1410" spans="1:2">
@@ -12543,7 +12543,7 @@
         <v>1525</v>
       </c>
       <c r="B1525">
-        <v>1.206717070977703</v>
+        <v>1.206717070977702</v>
       </c>
     </row>
     <row r="1526" spans="1:2">
@@ -12703,7 +12703,7 @@
         <v>1545</v>
       </c>
       <c r="B1545">
-        <v>3.608554391933279</v>
+        <v>3.608554391933278</v>
       </c>
     </row>
     <row r="1546" spans="1:2">
@@ -12711,7 +12711,7 @@
         <v>1546</v>
       </c>
       <c r="B1546">
-        <v>7.719960072001693</v>
+        <v>7.719960072001692</v>
       </c>
     </row>
     <row r="1547" spans="1:2">
@@ -12719,7 +12719,7 @@
         <v>1547</v>
       </c>
       <c r="B1547">
-        <v>3.9965804471209</v>
+        <v>3.996580447120899</v>
       </c>
     </row>
     <row r="1548" spans="1:2">
@@ -12775,7 +12775,7 @@
         <v>1554</v>
       </c>
       <c r="B1554">
-        <v>24.06124950251192</v>
+        <v>24.06124950251191</v>
       </c>
     </row>
     <row r="1555" spans="1:2">
@@ -12975,7 +12975,7 @@
         <v>1579</v>
       </c>
       <c r="B1579">
-        <v>21.13953639678537</v>
+        <v>21.13953639678536</v>
       </c>
     </row>
     <row r="1580" spans="1:2">
@@ -13319,7 +13319,7 @@
         <v>1622</v>
       </c>
       <c r="B1622">
-        <v>0.4257325750217899</v>
+        <v>0.4257325750217898</v>
       </c>
     </row>
     <row r="1623" spans="1:2">
@@ -14263,7 +14263,7 @@
         <v>1740</v>
       </c>
       <c r="B1740">
-        <v>2.92558164343688</v>
+        <v>2.925581643436879</v>
       </c>
     </row>
     <row r="1741" spans="1:2">
@@ -14439,7 +14439,7 @@
         <v>1762</v>
       </c>
       <c r="B1762">
-        <v>9.447760380429656</v>
+        <v>9.447760380429653</v>
       </c>
     </row>
     <row r="1763" spans="1:2">
@@ -14447,7 +14447,7 @@
         <v>1763</v>
       </c>
       <c r="B1763">
-        <v>8.776393245064245</v>
+        <v>8.776393245064243</v>
       </c>
     </row>
     <row r="1764" spans="1:2">
@@ -14479,7 +14479,7 @@
         <v>1767</v>
       </c>
       <c r="B1767">
-        <v>8.582175067743371</v>
+        <v>8.582175067743369</v>
       </c>
     </row>
     <row r="1768" spans="1:2">
@@ -14495,7 +14495,7 @@
         <v>1769</v>
       </c>
       <c r="B1769">
-        <v>36.68252962508595</v>
+        <v>36.68252962508594</v>
       </c>
     </row>
     <row r="1770" spans="1:2">
@@ -15271,7 +15271,7 @@
         <v>1866</v>
       </c>
       <c r="B1866">
-        <v>39.46201535575015</v>
+        <v>39.46201535575014</v>
       </c>
     </row>
     <row r="1867" spans="1:2">
@@ -15615,7 +15615,7 @@
         <v>1909</v>
       </c>
       <c r="B1909">
-        <v>0.6846989369141144</v>
+        <v>0.6846989369141143</v>
       </c>
     </row>
     <row r="1910" spans="1:2">
@@ -15631,7 +15631,7 @@
         <v>1911</v>
       </c>
       <c r="B1911">
-        <v>0.8700517153154822</v>
+        <v>0.8700517153154821</v>
       </c>
     </row>
     <row r="1912" spans="1:2">
@@ -15655,7 +15655,7 @@
         <v>1914</v>
       </c>
       <c r="B1914">
-        <v>16.35655843162448</v>
+        <v>16.35655843162447</v>
       </c>
     </row>
     <row r="1915" spans="1:2">
@@ -17311,7 +17311,7 @@
         <v>2121</v>
       </c>
       <c r="B2121">
-        <v>9.469828629640856</v>
+        <v>9.469828629640851</v>
       </c>
     </row>
     <row r="2122" spans="1:2">
@@ -17879,7 +17879,7 @@
         <v>2192</v>
       </c>
       <c r="B2192">
-        <v>4.79001167008876</v>
+        <v>4.790011670088759</v>
       </c>
     </row>
     <row r="2193" spans="1:2">
@@ -17943,7 +17943,7 @@
         <v>2200</v>
       </c>
       <c r="B2200">
-        <v>68.36116433606809</v>
+        <v>68.36116433606807</v>
       </c>
     </row>
     <row r="2201" spans="1:2">
@@ -18303,7 +18303,7 @@
         <v>2245</v>
       </c>
       <c r="B2245">
-        <v>72.98816989445341</v>
+        <v>72.98816989445339</v>
       </c>
     </row>
     <row r="2246" spans="1:2">
@@ -18343,7 +18343,7 @@
         <v>2250</v>
       </c>
       <c r="B2250">
-        <v>96.20496450616652</v>
+        <v>96.2049645061665</v>
       </c>
     </row>
     <row r="2251" spans="1:2">
@@ -18703,7 +18703,7 @@
         <v>2295</v>
       </c>
       <c r="B2295">
-        <v>29.19137011296717</v>
+        <v>29.19137011296716</v>
       </c>
     </row>
     <row r="2296" spans="1:2">
@@ -18863,7 +18863,7 @@
         <v>2315</v>
       </c>
       <c r="B2315">
-        <v>0.8597590604376958</v>
+        <v>0.8597590604376957</v>
       </c>
     </row>
     <row r="2316" spans="1:2">
@@ -19423,7 +19423,7 @@
         <v>2385</v>
       </c>
       <c r="B2385">
-        <v>8.884682993849612</v>
+        <v>8.88468299384961</v>
       </c>
     </row>
     <row r="2386" spans="1:2">
@@ -19455,7 +19455,7 @@
         <v>2389</v>
       </c>
       <c r="B2389">
-        <v>1.471966875938927</v>
+        <v>1.471966875938926</v>
       </c>
     </row>
     <row r="2390" spans="1:2">
@@ -19479,7 +19479,7 @@
         <v>2392</v>
       </c>
       <c r="B2392">
-        <v>44.94185763663998</v>
+        <v>44.94185763663997</v>
       </c>
     </row>
     <row r="2393" spans="1:2">
@@ -19815,7 +19815,7 @@
         <v>2434</v>
       </c>
       <c r="B2434">
-        <v>8.699872396869768</v>
+        <v>8.699872396869766</v>
       </c>
     </row>
     <row r="2435" spans="1:2">
@@ -20015,7 +20015,7 @@
         <v>2459</v>
       </c>
       <c r="B2459">
-        <v>68.74332897048248</v>
+        <v>68.74332897048247</v>
       </c>
     </row>
     <row r="2460" spans="1:2">
@@ -20031,7 +20031,7 @@
         <v>2461</v>
       </c>
       <c r="B2461">
-        <v>58.18192795024358</v>
+        <v>58.18192795024357</v>
       </c>
     </row>
     <row r="2462" spans="1:2">
@@ -20047,7 +20047,7 @@
         <v>2463</v>
       </c>
       <c r="B2463">
-        <v>82.91858896845443</v>
+        <v>82.91858896845442</v>
       </c>
     </row>
     <row r="2464" spans="1:2">
@@ -20599,7 +20599,7 @@
         <v>2532</v>
       </c>
       <c r="B2532">
-        <v>42.92171896714733</v>
+        <v>42.92171896714732</v>
       </c>
     </row>
     <row r="2533" spans="1:2">
@@ -20639,7 +20639,7 @@
         <v>2537</v>
       </c>
       <c r="B2537">
-        <v>93.76104511476956</v>
+        <v>93.76104511476954</v>
       </c>
     </row>
     <row r="2538" spans="1:2">
@@ -20799,7 +20799,7 @@
         <v>2557</v>
       </c>
       <c r="B2557">
-        <v>1.5457738863154</v>
+        <v>1.545773886315399</v>
       </c>
     </row>
     <row r="2558" spans="1:2">
@@ -20807,7 +20807,7 @@
         <v>2558</v>
       </c>
       <c r="B2558">
-        <v>1.902239121349581</v>
+        <v>1.90223912134958</v>
       </c>
     </row>
     <row r="2559" spans="1:2">
@@ -21359,7 +21359,7 @@
         <v>2627</v>
       </c>
       <c r="B2627">
-        <v>31.32548410939522</v>
+        <v>31.32548410939521</v>
       </c>
     </row>
     <row r="2628" spans="1:2">
@@ -21367,7 +21367,7 @@
         <v>2628</v>
       </c>
       <c r="B2628">
-        <v>23.7978372529631</v>
+        <v>23.79783725296309</v>
       </c>
     </row>
     <row r="2629" spans="1:2">
@@ -21391,7 +21391,7 @@
         <v>2631</v>
       </c>
       <c r="B2631">
-        <v>70.43493500563577</v>
+        <v>70.43493500563575</v>
       </c>
     </row>
     <row r="2632" spans="1:2">
@@ -22151,7 +22151,7 @@
         <v>2726</v>
       </c>
       <c r="B2726">
-        <v>0.192063812115674</v>
+        <v>0.1920638121156739</v>
       </c>
     </row>
     <row r="2727" spans="1:2">
@@ -22343,7 +22343,7 @@
         <v>2750</v>
       </c>
       <c r="B2750">
-        <v>46.13934590061024</v>
+        <v>46.13934590061023</v>
       </c>
     </row>
     <row r="2751" spans="1:2">
@@ -22367,7 +22367,7 @@
         <v>2753</v>
       </c>
       <c r="B2753">
-        <v>72.04242965269324</v>
+        <v>72.04242965269323</v>
       </c>
     </row>
     <row r="2754" spans="1:2">
@@ -22559,7 +22559,7 @@
         <v>2777</v>
       </c>
       <c r="B2777">
-        <v>99.78160346198958</v>
+        <v>99.78160346198956</v>
       </c>
     </row>
     <row r="2778" spans="1:2">
@@ -22567,7 +22567,7 @@
         <v>2778</v>
       </c>
       <c r="B2778">
-        <v>74.55258309882767</v>
+        <v>74.55258309882765</v>
       </c>
     </row>
     <row r="2779" spans="1:2">
@@ -22695,7 +22695,7 @@
         <v>2794</v>
       </c>
       <c r="B2794">
-        <v>42.85284727306191</v>
+        <v>42.8528472730619</v>
       </c>
     </row>
     <row r="2795" spans="1:2">
@@ -22711,7 +22711,7 @@
         <v>2796</v>
       </c>
       <c r="B2796">
-        <v>44.72820884945586</v>
+        <v>44.72820884945585</v>
       </c>
     </row>
     <row r="2797" spans="1:2">
@@ -22735,7 +22735,7 @@
         <v>2799</v>
       </c>
       <c r="B2799">
-        <v>38.736078392986</v>
+        <v>38.73607839298599</v>
       </c>
     </row>
     <row r="2800" spans="1:2">
@@ -23263,7 +23263,7 @@
         <v>2865</v>
       </c>
       <c r="B2865">
-        <v>44.00725409434895</v>
+        <v>44.00725409434894</v>
       </c>
     </row>
     <row r="2866" spans="1:2">
@@ -23287,7 +23287,7 @@
         <v>2868</v>
       </c>
       <c r="B2868">
-        <v>67.31665915427905</v>
+        <v>67.31665915427904</v>
       </c>
     </row>
     <row r="2869" spans="1:2">
@@ -23911,7 +23911,7 @@
         <v>2946</v>
       </c>
       <c r="B2946">
-        <v>44.02220071732068</v>
+        <v>44.02220071732067</v>
       </c>
     </row>
     <row r="2947" spans="1:2">
@@ -24023,7 +24023,7 @@
         <v>2960</v>
       </c>
       <c r="B2960">
-        <v>23.65323600248759</v>
+        <v>23.65323600248758</v>
       </c>
     </row>
     <row r="2961" spans="1:2">
@@ -24063,7 +24063,7 @@
         <v>2965</v>
       </c>
       <c r="B2965">
-        <v>58.37857861718534</v>
+        <v>58.37857861718533</v>
       </c>
     </row>
     <row r="2966" spans="1:2">
@@ -24439,7 +24439,7 @@
         <v>3012</v>
       </c>
       <c r="B3012">
-        <v>7.123091594663998</v>
+        <v>7.123091594663997</v>
       </c>
     </row>
     <row r="3013" spans="1:2">
@@ -24671,7 +24671,7 @@
         <v>3041</v>
       </c>
       <c r="B3041">
-        <v>85.77251474293861</v>
+        <v>85.7725147429386</v>
       </c>
     </row>
     <row r="3042" spans="1:2">
@@ -24959,7 +24959,7 @@
         <v>3077</v>
       </c>
       <c r="B3077">
-        <v>3.631677696883659</v>
+        <v>3.631677696883658</v>
       </c>
     </row>
     <row r="3078" spans="1:2">
@@ -24983,7 +24983,7 @@
         <v>3080</v>
       </c>
       <c r="B3080">
-        <v>13.90264531780917</v>
+        <v>13.90264531780916</v>
       </c>
     </row>
     <row r="3081" spans="1:2">
@@ -25255,7 +25255,7 @@
         <v>3114</v>
       </c>
       <c r="B3114">
-        <v>74.10623590694644</v>
+        <v>74.10623590694642</v>
       </c>
     </row>
     <row r="3115" spans="1:2">
@@ -25383,7 +25383,7 @@
         <v>3130</v>
       </c>
       <c r="B3130">
-        <v>90.98917923111055</v>
+        <v>90.98917923111054</v>
       </c>
     </row>
     <row r="3131" spans="1:2">
@@ -25407,7 +25407,7 @@
         <v>3133</v>
       </c>
       <c r="B3133">
-        <v>81.42363360024291</v>
+        <v>81.42363360024289</v>
       </c>
     </row>
     <row r="3134" spans="1:2">
@@ -25583,7 +25583,7 @@
         <v>3155</v>
       </c>
       <c r="B3155">
-        <v>9.627237084505865</v>
+        <v>9.627237084505859</v>
       </c>
     </row>
     <row r="3156" spans="1:2">
@@ -25647,7 +25647,7 @@
         <v>3163</v>
       </c>
       <c r="B3163">
-        <v>18.62791759545764</v>
+        <v>18.62791759545763</v>
       </c>
     </row>
     <row r="3164" spans="1:2">
@@ -25783,7 +25783,7 @@
         <v>3180</v>
       </c>
       <c r="B3180">
-        <v>45.88466716801353</v>
+        <v>45.88466716801352</v>
       </c>
     </row>
     <row r="3181" spans="1:2">
@@ -25799,7 +25799,7 @@
         <v>3182</v>
       </c>
       <c r="B3182">
-        <v>57.11456322743896</v>
+        <v>57.11456322743895</v>
       </c>
     </row>
     <row r="3183" spans="1:2">
@@ -25831,7 +25831,7 @@
         <v>3186</v>
       </c>
       <c r="B3186">
-        <v>30.11129079622126</v>
+        <v>30.11129079622125</v>
       </c>
     </row>
     <row r="3187" spans="1:2">
@@ -25959,7 +25959,7 @@
         <v>3202</v>
       </c>
       <c r="B3202">
-        <v>92.07266286104156</v>
+        <v>92.07266286104154</v>
       </c>
     </row>
     <row r="3203" spans="1:2">
@@ -26015,7 +26015,7 @@
         <v>3209</v>
       </c>
       <c r="B3209">
-        <v>44.89350091526086</v>
+        <v>44.89350091526085</v>
       </c>
     </row>
     <row r="3210" spans="1:2">
@@ -26183,7 +26183,7 @@
         <v>3230</v>
       </c>
       <c r="B3230">
-        <v>86.41375417552963</v>
+        <v>86.41375417552962</v>
       </c>
     </row>
     <row r="3231" spans="1:2">
@@ -26343,7 +26343,7 @@
         <v>3250</v>
       </c>
       <c r="B3250">
-        <v>100.3571949819205</v>
+        <v>100.3571949819204</v>
       </c>
     </row>
     <row r="3251" spans="1:2">
@@ -26359,7 +26359,7 @@
         <v>3252</v>
       </c>
       <c r="B3252">
-        <v>101.4831739124574</v>
+        <v>101.4831739124573</v>
       </c>
     </row>
     <row r="3253" spans="1:2">
@@ -26503,7 +26503,7 @@
         <v>3270</v>
       </c>
       <c r="B3270">
-        <v>63.50439108337227</v>
+        <v>63.50439108337226</v>
       </c>
     </row>
     <row r="3271" spans="1:2">
@@ -26599,7 +26599,7 @@
         <v>3282</v>
       </c>
       <c r="B3282">
-        <v>82.31779333919867</v>
+        <v>82.31779333919866</v>
       </c>
     </row>
     <row r="3283" spans="1:2">
@@ -26775,7 +26775,7 @@
         <v>3304</v>
       </c>
       <c r="B3304">
-        <v>33.40863305220006</v>
+        <v>33.40863305220005</v>
       </c>
     </row>
     <row r="3305" spans="1:2">
@@ -26791,7 +26791,7 @@
         <v>3306</v>
       </c>
       <c r="B3306">
-        <v>6.787466641189025</v>
+        <v>6.787466641189024</v>
       </c>
     </row>
     <row r="3307" spans="1:2">
@@ -27479,7 +27479,7 @@
         <v>3392</v>
       </c>
       <c r="B3392">
-        <v>25.27037268671703</v>
+        <v>25.27037268671702</v>
       </c>
     </row>
     <row r="3393" spans="1:2">
@@ -27519,7 +27519,7 @@
         <v>3397</v>
       </c>
       <c r="B3397">
-        <v>53.60943360504927</v>
+        <v>53.60943360504926</v>
       </c>
     </row>
     <row r="3398" spans="1:2">
@@ -27687,7 +27687,7 @@
         <v>3418</v>
       </c>
       <c r="B3418">
-        <v>81.93826634413223</v>
+        <v>81.93826634413222</v>
       </c>
     </row>
     <row r="3419" spans="1:2">
@@ -27703,7 +27703,7 @@
         <v>3420</v>
       </c>
       <c r="B3420">
-        <v>82.71519766762346</v>
+        <v>82.71519766762344</v>
       </c>
     </row>
     <row r="3421" spans="1:2">
@@ -27839,7 +27839,7 @@
         <v>3437</v>
       </c>
       <c r="B3437">
-        <v>7.012515891777072</v>
+        <v>7.012515891777071</v>
       </c>
     </row>
     <row r="3438" spans="1:2">
@@ -27855,7 +27855,7 @@
         <v>3439</v>
       </c>
       <c r="B3439">
-        <v>54.43735928926757</v>
+        <v>54.43735928926756</v>
       </c>
     </row>
     <row r="3440" spans="1:2">
@@ -28311,7 +28311,7 @@
         <v>3496</v>
       </c>
       <c r="B3496">
-        <v>61.51209416255245</v>
+        <v>61.51209416255244</v>
       </c>
     </row>
     <row r="3497" spans="1:2">
@@ -28455,7 +28455,7 @@
         <v>3514</v>
       </c>
       <c r="B3514">
-        <v>59.06084799518895</v>
+        <v>59.06084799518894</v>
       </c>
     </row>
     <row r="3515" spans="1:2">
@@ -28551,7 +28551,7 @@
         <v>3526</v>
       </c>
       <c r="B3526">
-        <v>7.737837405360035</v>
+        <v>7.737837405360034</v>
       </c>
     </row>
     <row r="3527" spans="1:2">
@@ -28687,7 +28687,7 @@
         <v>3543</v>
       </c>
       <c r="B3543">
-        <v>85.70305690677587</v>
+        <v>85.70305690677586</v>
       </c>
     </row>
     <row r="3544" spans="1:2">
@@ -29263,7 +29263,7 @@
         <v>3615</v>
       </c>
       <c r="B3615">
-        <v>177.2159540839743</v>
+        <v>177.2159540839742</v>
       </c>
     </row>
     <row r="3616" spans="1:2">
@@ -29391,7 +29391,7 @@
         <v>3631</v>
       </c>
       <c r="B3631">
-        <v>121.8014959518098</v>
+        <v>121.8014959518097</v>
       </c>
     </row>
     <row r="3632" spans="1:2">
@@ -29399,7 +29399,7 @@
         <v>3632</v>
       </c>
       <c r="B3632">
-        <v>142.5057925490792</v>
+        <v>142.5057925490791</v>
       </c>
     </row>
     <row r="3633" spans="1:2">
@@ -29855,7 +29855,7 @@
         <v>3689</v>
       </c>
       <c r="B3689">
-        <v>57.24732440795255</v>
+        <v>57.24732440795254</v>
       </c>
     </row>
     <row r="3690" spans="1:2">
@@ -30159,7 +30159,7 @@
         <v>3727</v>
       </c>
       <c r="B3727">
-        <v>46.78380911462654</v>
+        <v>46.78380911462653</v>
       </c>
     </row>
     <row r="3728" spans="1:2">
@@ -30167,7 +30167,7 @@
         <v>3728</v>
       </c>
       <c r="B3728">
-        <v>61.46901271986923</v>
+        <v>61.46901271986922</v>
       </c>
     </row>
     <row r="3729" spans="1:2">
@@ -30175,7 +30175,7 @@
         <v>3729</v>
       </c>
       <c r="B3729">
-        <v>61.45816909143876</v>
+        <v>61.45816909143875</v>
       </c>
     </row>
     <row r="3730" spans="1:2">
@@ -30191,7 +30191,7 @@
         <v>3731</v>
       </c>
       <c r="B3731">
-        <v>106.277816104957</v>
+        <v>106.2778161049569</v>
       </c>
     </row>
     <row r="3732" spans="1:2">
@@ -30239,7 +30239,7 @@
         <v>3737</v>
       </c>
       <c r="B3737">
-        <v>87.34161708393145</v>
+        <v>87.34161708393144</v>
       </c>
     </row>
     <row r="3738" spans="1:2">
@@ -30607,7 +30607,7 @@
         <v>3783</v>
       </c>
       <c r="B3783">
-        <v>175.6767449889249</v>
+        <v>175.6767449889248</v>
       </c>
     </row>
     <row r="3784" spans="1:2">
@@ -30623,7 +30623,7 @@
         <v>3785</v>
       </c>
       <c r="B3785">
-        <v>175.3150953272168</v>
+        <v>175.3150953272167</v>
       </c>
     </row>
     <row r="3786" spans="1:2">
@@ -30959,7 +30959,7 @@
         <v>3827</v>
       </c>
       <c r="B3827">
-        <v>6.419838330292234</v>
+        <v>6.419838330292233</v>
       </c>
     </row>
     <row r="3828" spans="1:2">
@@ -31007,7 +31007,7 @@
         <v>3833</v>
       </c>
       <c r="B3833">
-        <v>72.06558226474749</v>
+        <v>72.06558226474748</v>
       </c>
     </row>
     <row r="3834" spans="1:2">
@@ -31231,7 +31231,7 @@
         <v>3861</v>
       </c>
       <c r="B3861">
-        <v>3.361700656068828</v>
+        <v>3.361700656068827</v>
       </c>
     </row>
     <row r="3862" spans="1:2">
@@ -31303,7 +31303,7 @@
         <v>3870</v>
       </c>
       <c r="B3870">
-        <v>75.47194694710831</v>
+        <v>75.47194694710829</v>
       </c>
     </row>
     <row r="3871" spans="1:2">
@@ -31327,7 +31327,7 @@
         <v>3873</v>
       </c>
       <c r="B3873">
-        <v>69.25532407502385</v>
+        <v>69.25532407502384</v>
       </c>
     </row>
     <row r="3874" spans="1:2">
@@ -31351,7 +31351,7 @@
         <v>3876</v>
       </c>
       <c r="B3876">
-        <v>73.12005186185101</v>
+        <v>73.120051861851</v>
       </c>
     </row>
     <row r="3877" spans="1:2">
@@ -31367,7 +31367,7 @@
         <v>3878</v>
       </c>
       <c r="B3878">
-        <v>80.21090564226226</v>
+        <v>80.21090564226225</v>
       </c>
     </row>
     <row r="3879" spans="1:2">
@@ -31375,7 +31375,7 @@
         <v>3879</v>
       </c>
       <c r="B3879">
-        <v>79.67575792566664</v>
+        <v>79.67575792566663</v>
       </c>
     </row>
     <row r="3880" spans="1:2">
@@ -31487,7 +31487,7 @@
         <v>3893</v>
       </c>
       <c r="B3893">
-        <v>75.96342707894338</v>
+        <v>75.96342707894337</v>
       </c>
     </row>
     <row r="3894" spans="1:2">
@@ -31495,7 +31495,7 @@
         <v>3894</v>
       </c>
       <c r="B3894">
-        <v>56.3303051279812</v>
+        <v>56.33030512798119</v>
       </c>
     </row>
     <row r="3895" spans="1:2">
@@ -31511,7 +31511,7 @@
         <v>3896</v>
       </c>
       <c r="B3896">
-        <v>61.24452030425464</v>
+        <v>61.24452030425463</v>
       </c>
     </row>
     <row r="3897" spans="1:2">
@@ -31591,7 +31591,7 @@
         <v>3906</v>
       </c>
       <c r="B3906">
-        <v>120.046293501267</v>
+        <v>120.0462935012669</v>
       </c>
     </row>
     <row r="3907" spans="1:2">
@@ -31687,7 +31687,7 @@
         <v>3918</v>
       </c>
       <c r="B3918">
-        <v>75.41831494703328</v>
+        <v>75.41831494703327</v>
       </c>
     </row>
     <row r="3919" spans="1:2">
@@ -31695,7 +31695,7 @@
         <v>3919</v>
       </c>
       <c r="B3919">
-        <v>76.47542218348475</v>
+        <v>76.47542218348474</v>
       </c>
     </row>
     <row r="3920" spans="1:2">
@@ -31759,7 +31759,7 @@
         <v>3927</v>
       </c>
       <c r="B3927">
-        <v>178.2493225662942</v>
+        <v>178.2493225662941</v>
       </c>
     </row>
     <row r="3928" spans="1:2">
@@ -31783,7 +31783,7 @@
         <v>3930</v>
       </c>
       <c r="B3930">
-        <v>165.959095488992</v>
+        <v>165.9590954889919</v>
       </c>
     </row>
     <row r="3931" spans="1:2">
@@ -31951,7 +31951,7 @@
         <v>3951</v>
       </c>
       <c r="B3951">
-        <v>179.4479831144191</v>
+        <v>179.447983114419</v>
       </c>
     </row>
     <row r="3952" spans="1:2">
@@ -32031,7 +32031,7 @@
         <v>3961</v>
       </c>
       <c r="B3961">
-        <v>5.94289452197476</v>
+        <v>5.942894521974759</v>
       </c>
     </row>
     <row r="3962" spans="1:2">
@@ -32039,7 +32039,7 @@
         <v>3962</v>
       </c>
       <c r="B3962">
-        <v>4.553151656642661</v>
+        <v>4.55315165664266</v>
       </c>
     </row>
     <row r="3963" spans="1:2">
@@ -32055,7 +32055,7 @@
         <v>3964</v>
       </c>
       <c r="B3964">
-        <v>1.44481677491734</v>
+        <v>1.444816774917339</v>
       </c>
     </row>
     <row r="3965" spans="1:2">
@@ -32207,7 +32207,7 @@
         <v>3983</v>
       </c>
       <c r="B3983">
-        <v>5.137154315383124</v>
+        <v>5.137154315383123</v>
       </c>
     </row>
     <row r="3984" spans="1:2">
@@ -32343,7 +32343,7 @@
         <v>4000</v>
       </c>
       <c r="B4000">
-        <v>78.17230349733394</v>
+        <v>78.17230349733393</v>
       </c>
     </row>
     <row r="4001" spans="1:2">
@@ -32375,7 +32375,7 @@
         <v>4004</v>
       </c>
       <c r="B4004">
-        <v>33.03408826479086</v>
+        <v>33.03408826479085</v>
       </c>
     </row>
     <row r="4005" spans="1:2">
@@ -32407,7 +32407,7 @@
         <v>4008</v>
       </c>
       <c r="B4008">
-        <v>8.771147273472208</v>
+        <v>8.771147273472206</v>
       </c>
     </row>
     <row r="4009" spans="1:2">
@@ -32463,7 +32463,7 @@
         <v>4015</v>
       </c>
       <c r="B4015">
-        <v>20.77287522031616</v>
+        <v>20.77287522031615</v>
       </c>
     </row>
     <row r="4016" spans="1:2">
@@ -32519,7 +32519,7 @@
         <v>4022</v>
       </c>
       <c r="B4022">
-        <v>81.17393707530344</v>
+        <v>81.17393707530343</v>
       </c>
     </row>
     <row r="4023" spans="1:2">
@@ -32527,7 +32527,7 @@
         <v>4023</v>
       </c>
       <c r="B4023">
-        <v>97.84762767786336</v>
+        <v>97.84762767786334</v>
       </c>
     </row>
     <row r="4024" spans="1:2">
@@ -32679,7 +32679,7 @@
         <v>4042</v>
       </c>
       <c r="B4042">
-        <v>162.3783535386277</v>
+        <v>162.3783535386276</v>
       </c>
     </row>
     <row r="4043" spans="1:2">
@@ -32687,7 +32687,7 @@
         <v>4043</v>
       </c>
       <c r="B4043">
-        <v>165.9675945491132</v>
+        <v>165.9675945491131</v>
       </c>
     </row>
     <row r="4044" spans="1:2">
@@ -32711,7 +32711,7 @@
         <v>4046</v>
       </c>
       <c r="B4046">
-        <v>166.345070046909</v>
+        <v>166.3450700469089</v>
       </c>
     </row>
     <row r="4047" spans="1:2">
@@ -32831,7 +32831,7 @@
         <v>4061</v>
       </c>
       <c r="B4061">
-        <v>186.5748846325857</v>
+        <v>186.5748846325856</v>
       </c>
     </row>
     <row r="4062" spans="1:2">
@@ -32887,7 +32887,7 @@
         <v>4068</v>
       </c>
       <c r="B4068">
-        <v>184.7634125426199</v>
+        <v>184.7634125426198</v>
       </c>
     </row>
     <row r="4069" spans="1:2">
@@ -33103,7 +33103,7 @@
         <v>4095</v>
       </c>
       <c r="B4095">
-        <v>169.301277613886</v>
+        <v>169.3012776138859</v>
       </c>
     </row>
     <row r="4096" spans="1:2">
@@ -33423,7 +33423,7 @@
         <v>4135</v>
       </c>
       <c r="B4135">
-        <v>82.39399180925062</v>
+        <v>82.39399180925061</v>
       </c>
     </row>
     <row r="4136" spans="1:2">
@@ -33631,7 +33631,7 @@
         <v>4161</v>
       </c>
       <c r="B4161">
-        <v>41.54868115101893</v>
+        <v>41.54868115101892</v>
       </c>
     </row>
     <row r="4162" spans="1:2">
@@ -33671,7 +33671,7 @@
         <v>4166</v>
       </c>
       <c r="B4166">
-        <v>71.26813596854997</v>
+        <v>71.26813596854996</v>
       </c>
     </row>
     <row r="4167" spans="1:2">
@@ -33687,7 +33687,7 @@
         <v>4168</v>
       </c>
       <c r="B4168">
-        <v>84.29426442393078</v>
+        <v>84.29426442393077</v>
       </c>
     </row>
     <row r="4169" spans="1:2">
@@ -33695,7 +33695,7 @@
         <v>4169</v>
       </c>
       <c r="B4169">
-        <v>67.81077692546208</v>
+        <v>67.81077692546206</v>
       </c>
     </row>
     <row r="4170" spans="1:2">
@@ -33735,7 +33735,7 @@
         <v>4174</v>
       </c>
       <c r="B4174">
-        <v>6.66232530768063</v>
+        <v>6.662325307680629</v>
       </c>
     </row>
     <row r="4175" spans="1:2">
@@ -34231,7 +34231,7 @@
         <v>4236</v>
       </c>
       <c r="B4236">
-        <v>143.4656002006951</v>
+        <v>143.465600200695</v>
       </c>
     </row>
     <row r="4237" spans="1:2">
@@ -34431,7 +34431,7 @@
         <v>4261</v>
       </c>
       <c r="B4261">
-        <v>118.3919074880237</v>
+        <v>118.3919074880236</v>
       </c>
     </row>
     <row r="4262" spans="1:2">
@@ -35223,7 +35223,7 @@
         <v>4360</v>
       </c>
       <c r="B4360">
-        <v>87.27743452646462</v>
+        <v>87.2774345264646</v>
       </c>
     </row>
     <row r="4361" spans="1:2">
@@ -35423,7 +35423,7 @@
         <v>4385</v>
       </c>
       <c r="B4385">
-        <v>149.2376343071303</v>
+        <v>149.2376343071302</v>
       </c>
     </row>
     <row r="4386" spans="1:2">
@@ -35535,7 +35535,7 @@
         <v>4399</v>
       </c>
       <c r="B4399">
-        <v>88.57486001461839</v>
+        <v>88.57486001461838</v>
       </c>
     </row>
     <row r="4400" spans="1:2">
@@ -35911,7 +35911,7 @@
         <v>4446</v>
       </c>
       <c r="B4446">
-        <v>90.32947632308388</v>
+        <v>90.32947632308384</v>
       </c>
     </row>
     <row r="4447" spans="1:2">
@@ -36119,7 +36119,7 @@
         <v>4472</v>
       </c>
       <c r="B4472">
-        <v>138.7861349263894</v>
+        <v>138.7861349263893</v>
       </c>
     </row>
     <row r="4473" spans="1:2">
@@ -36167,7 +36167,7 @@
         <v>4478</v>
       </c>
       <c r="B4478">
-        <v>169.5369067289697</v>
+        <v>169.5369067289696</v>
       </c>
     </row>
     <row r="4479" spans="1:2">
@@ -36343,7 +36343,7 @@
         <v>4500</v>
       </c>
       <c r="B4500">
-        <v>96.3553099489998</v>
+        <v>96.35530994899976</v>
       </c>
     </row>
     <row r="4501" spans="1:2">
@@ -36399,7 +36399,7 @@
         <v>4507</v>
       </c>
       <c r="B4507">
-        <v>72.84778886693462</v>
+        <v>72.84778886693461</v>
       </c>
     </row>
     <row r="4508" spans="1:2">
@@ -36431,7 +36431,7 @@
         <v>4511</v>
       </c>
       <c r="B4511">
-        <v>27.85268022256988</v>
+        <v>27.85268022256987</v>
       </c>
     </row>
     <row r="4512" spans="1:2">
@@ -36567,7 +36567,7 @@
         <v>4528</v>
       </c>
       <c r="B4528">
-        <v>71.75492696376647</v>
+        <v>71.75492696376645</v>
       </c>
     </row>
     <row r="4529" spans="1:2">
@@ -36863,7 +36863,7 @@
         <v>4565</v>
       </c>
       <c r="B4565">
-        <v>146.2412760078567</v>
+        <v>146.2412760078566</v>
       </c>
     </row>
     <row r="4566" spans="1:2">
@@ -36967,7 +36967,7 @@
         <v>4578</v>
       </c>
       <c r="B4578">
-        <v>84.04515404106864</v>
+        <v>84.04515404106863</v>
       </c>
     </row>
     <row r="4579" spans="1:2">
@@ -37055,7 +37055,7 @@
         <v>4589</v>
       </c>
       <c r="B4589">
-        <v>59.87880926409277</v>
+        <v>59.87880926409276</v>
       </c>
     </row>
     <row r="4590" spans="1:2">
@@ -37071,7 +37071,7 @@
         <v>4591</v>
       </c>
       <c r="B4591">
-        <v>87.15287933503355</v>
+        <v>87.15287933503353</v>
       </c>
     </row>
     <row r="4592" spans="1:2">
@@ -37159,7 +37159,7 @@
         <v>4602</v>
       </c>
       <c r="B4602">
-        <v>155.3226682828558</v>
+        <v>155.3226682828557</v>
       </c>
     </row>
     <row r="4603" spans="1:2">
@@ -37343,7 +37343,7 @@
         <v>4625</v>
       </c>
       <c r="B4625">
-        <v>108.6880323269079</v>
+        <v>108.6880323269078</v>
       </c>
     </row>
     <row r="4626" spans="1:2">
@@ -37775,7 +37775,7 @@
         <v>4679</v>
       </c>
       <c r="B4679">
-        <v>6.053646067484883</v>
+        <v>6.053646067484882</v>
       </c>
     </row>
     <row r="4680" spans="1:2">
@@ -37863,7 +37863,7 @@
         <v>4690</v>
       </c>
       <c r="B4690">
-        <v>76.3734334620306</v>
+        <v>76.37343346203059</v>
       </c>
     </row>
     <row r="4691" spans="1:2">
@@ -37871,7 +37871,7 @@
         <v>4691</v>
       </c>
       <c r="B4691">
-        <v>80.37326699768064</v>
+        <v>80.37326699768063</v>
       </c>
     </row>
     <row r="4692" spans="1:2">
@@ -37983,7 +37983,7 @@
         <v>4705</v>
       </c>
       <c r="B4705">
-        <v>4.772544636184544</v>
+        <v>4.772544636184543</v>
       </c>
     </row>
     <row r="4706" spans="1:2">
@@ -38047,7 +38047,7 @@
         <v>4713</v>
       </c>
       <c r="B4713">
-        <v>191.7675172955874</v>
+        <v>191.7675172955873</v>
       </c>
     </row>
     <row r="4714" spans="1:2">
@@ -38407,7 +38407,7 @@
         <v>4758</v>
       </c>
       <c r="B4758">
-        <v>129.7161724218981</v>
+        <v>129.716172421898</v>
       </c>
     </row>
     <row r="4759" spans="1:2">
@@ -38559,7 +38559,7 @@
         <v>4777</v>
       </c>
       <c r="B4777">
-        <v>0.8422890958230931</v>
+        <v>0.842289095823093</v>
       </c>
     </row>
     <row r="4778" spans="1:2">
@@ -38871,7 +38871,7 @@
         <v>4816</v>
       </c>
       <c r="B4816">
-        <v>176.2233224760283</v>
+        <v>176.2233224760282</v>
       </c>
     </row>
     <row r="4817" spans="1:2">
@@ -39095,7 +39095,7 @@
         <v>4844</v>
       </c>
       <c r="B4844">
-        <v>63.94722142278956</v>
+        <v>63.94722142278955</v>
       </c>
     </row>
     <row r="4845" spans="1:2">
@@ -39111,7 +39111,7 @@
         <v>4846</v>
       </c>
       <c r="B4846">
-        <v>53.13260702514726</v>
+        <v>53.13260702514725</v>
       </c>
     </row>
     <row r="4847" spans="1:2">
@@ -39279,7 +39279,7 @@
         <v>4867</v>
       </c>
       <c r="B4867">
-        <v>67.49543248786247</v>
+        <v>67.49543248786246</v>
       </c>
     </row>
     <row r="4868" spans="1:2">
@@ -39759,7 +39759,7 @@
         <v>4927</v>
       </c>
       <c r="B4927">
-        <v>99.70276735258967</v>
+        <v>99.70276735258966</v>
       </c>
     </row>
     <row r="4928" spans="1:2">
@@ -39823,7 +39823,7 @@
         <v>4935</v>
       </c>
       <c r="B4935">
-        <v>154.5562875167564</v>
+        <v>154.5562875167563</v>
       </c>
     </row>
     <row r="4936" spans="1:2">
@@ -40135,7 +40135,7 @@
         <v>4974</v>
       </c>
       <c r="B4974">
-        <v>72.86830383964092</v>
+        <v>72.8683038396409</v>
       </c>
     </row>
     <row r="4975" spans="1:2">
@@ -40231,7 +40231,7 @@
         <v>4986</v>
       </c>
       <c r="B4986">
-        <v>113.4085275466262</v>
+        <v>113.4085275466261</v>
       </c>
     </row>
     <row r="4987" spans="1:2">
@@ -40583,7 +40583,7 @@
         <v>5030</v>
       </c>
       <c r="B5030">
-        <v>40.71548018810472</v>
+        <v>40.71548018810471</v>
       </c>
     </row>
     <row r="5031" spans="1:2">
@@ -40591,7 +40591,7 @@
         <v>5031</v>
       </c>
       <c r="B5031">
-        <v>45.49224504724599</v>
+        <v>45.49224504724598</v>
       </c>
     </row>
     <row r="5032" spans="1:2">
@@ -40639,7 +40639,7 @@
         <v>5037</v>
       </c>
       <c r="B5037">
-        <v>5.519905091874841</v>
+        <v>5.51990509187484</v>
       </c>
     </row>
     <row r="5038" spans="1:2">
@@ -40719,7 +40719,7 @@
         <v>5047</v>
       </c>
       <c r="B5047">
-        <v>87.72378171834585</v>
+        <v>87.72378171834583</v>
       </c>
     </row>
     <row r="5048" spans="1:2">
@@ -40903,7 +40903,7 @@
         <v>5070</v>
       </c>
       <c r="B5070">
-        <v>66.81462846505217</v>
+        <v>66.81462846505215</v>
       </c>
     </row>
     <row r="5071" spans="1:2">
@@ -40983,7 +40983,7 @@
         <v>5080</v>
       </c>
       <c r="B5080">
-        <v>174.2058214458836</v>
+        <v>174.2058214458835</v>
       </c>
     </row>
     <row r="5081" spans="1:2">
@@ -41703,7 +41703,7 @@
         <v>5170</v>
       </c>
       <c r="B5170">
-        <v>62.10585608688033</v>
+        <v>62.10585608688032</v>
       </c>
     </row>
     <row r="5171" spans="1:2">
@@ -41711,7 +41711,7 @@
         <v>5171</v>
       </c>
       <c r="B5171">
-        <v>70.67994239395665</v>
+        <v>70.67994239395664</v>
       </c>
     </row>
     <row r="5172" spans="1:2">
@@ -41735,7 +41735,7 @@
         <v>5174</v>
       </c>
       <c r="B5174">
-        <v>84.52872125485986</v>
+        <v>84.52872125485985</v>
       </c>
     </row>
     <row r="5175" spans="1:2">
@@ -41839,7 +41839,7 @@
         <v>5187</v>
       </c>
       <c r="B5187">
-        <v>11.60696125776712</v>
+        <v>11.60696125776711</v>
       </c>
     </row>
     <row r="5188" spans="1:2">
@@ -41935,7 +41935,7 @@
         <v>5199</v>
       </c>
       <c r="B5199">
-        <v>51.8767976244834</v>
+        <v>51.87679762448339</v>
       </c>
     </row>
     <row r="5200" spans="1:2">
@@ -41959,7 +41959,7 @@
         <v>5202</v>
       </c>
       <c r="B5202">
-        <v>34.05338933725502</v>
+        <v>34.05338933725501</v>
       </c>
     </row>
     <row r="5203" spans="1:2">
@@ -42639,7 +42639,7 @@
         <v>5287</v>
       </c>
       <c r="B5287">
-        <v>77.40064745253862</v>
+        <v>77.40064745253861</v>
       </c>
     </row>
     <row r="5288" spans="1:2">
@@ -43335,7 +43335,7 @@
         <v>5374</v>
       </c>
       <c r="B5374">
-        <v>19.06069559824885</v>
+        <v>19.06069559824884</v>
       </c>
     </row>
     <row r="5375" spans="1:2">
@@ -43815,7 +43815,7 @@
         <v>5434</v>
       </c>
       <c r="B5434">
-        <v>87.62911977285823</v>
+        <v>87.62911977285822</v>
       </c>
     </row>
     <row r="5435" spans="1:2">
@@ -43975,7 +43975,7 @@
         <v>5454</v>
       </c>
       <c r="B5454">
-        <v>41.71661085617188</v>
+        <v>41.71661085617187</v>
       </c>
     </row>
     <row r="5455" spans="1:2">
@@ -43991,7 +43991,7 @@
         <v>5456</v>
       </c>
       <c r="B5456">
-        <v>52.23346507853425</v>
+        <v>52.23346507853424</v>
       </c>
     </row>
     <row r="5457" spans="1:2">
@@ -44167,7 +44167,7 @@
         <v>5478</v>
       </c>
       <c r="B5478">
-        <v>42.81973024569318</v>
+        <v>42.81973024569317</v>
       </c>
     </row>
     <row r="5479" spans="1:2">
@@ -44199,7 +44199,7 @@
         <v>5482</v>
       </c>
       <c r="B5482">
-        <v>66.85565841046476</v>
+        <v>66.85565841046474</v>
       </c>
     </row>
     <row r="5483" spans="1:2">
@@ -44479,7 +44479,7 @@
         <v>5517</v>
       </c>
       <c r="B5517">
-        <v>4.526980412890203</v>
+        <v>4.526980412890202</v>
       </c>
     </row>
     <row r="5518" spans="1:2">
@@ -44799,7 +44799,7 @@
         <v>5557</v>
       </c>
       <c r="B5557">
-        <v>156.3340564372761</v>
+        <v>156.334056437276</v>
       </c>
     </row>
     <row r="5558" spans="1:2">
@@ -45167,7 +45167,7 @@
         <v>5603</v>
       </c>
       <c r="B5603">
-        <v>80.72026310745568</v>
+        <v>80.72026310745566</v>
       </c>
     </row>
     <row r="5604" spans="1:2">
@@ -45535,7 +45535,7 @@
         <v>5649</v>
       </c>
       <c r="B5649">
-        <v>116.797601037706</v>
+        <v>116.7976010377059</v>
       </c>
     </row>
     <row r="5650" spans="1:2">
@@ -45567,7 +45567,7 @@
         <v>5653</v>
       </c>
       <c r="B5653">
-        <v>110.5273461655465</v>
+        <v>110.5273461655464</v>
       </c>
     </row>
     <row r="5654" spans="1:2">
@@ -45791,7 +45791,7 @@
         <v>5681</v>
       </c>
       <c r="B5681">
-        <v>78.30272010953824</v>
+        <v>78.30272010953823</v>
       </c>
     </row>
     <row r="5682" spans="1:2">
@@ -45943,7 +45943,7 @@
         <v>5700</v>
       </c>
       <c r="B5700">
-        <v>81.87144614731744</v>
+        <v>81.87144614731743</v>
       </c>
     </row>
     <row r="5701" spans="1:2">
@@ -46071,7 +46071,7 @@
         <v>5716</v>
       </c>
       <c r="B5716">
-        <v>7.692733772510055</v>
+        <v>7.692733772510054</v>
       </c>
     </row>
     <row r="5717" spans="1:2">
@@ -46095,7 +46095,7 @@
         <v>5719</v>
       </c>
       <c r="B5719">
-        <v>105.8531561699367</v>
+        <v>105.8531561699366</v>
       </c>
     </row>
     <row r="5720" spans="1:2">
@@ -46471,7 +46471,7 @@
         <v>5766</v>
       </c>
       <c r="B5766">
-        <v>91.15007523133563</v>
+        <v>91.15007523133562</v>
       </c>
     </row>
     <row r="5767" spans="1:2">
@@ -46503,7 +46503,7 @@
         <v>5770</v>
       </c>
       <c r="B5770">
-        <v>125.994170230899</v>
+        <v>125.9941702308989</v>
       </c>
     </row>
     <row r="5771" spans="1:2">
@@ -46655,7 +46655,7 @@
         <v>5789</v>
       </c>
       <c r="B5789">
-        <v>33.06222308450235</v>
+        <v>33.06222308450234</v>
       </c>
     </row>
     <row r="5790" spans="1:2">
@@ -46695,7 +46695,7 @@
         <v>5794</v>
       </c>
       <c r="B5794">
-        <v>116.3796817365749</v>
+        <v>116.3796817365748</v>
       </c>
     </row>
     <row r="5795" spans="1:2">
@@ -46751,7 +46751,7 @@
         <v>5801</v>
       </c>
       <c r="B5801">
-        <v>147.4619168838812</v>
+        <v>147.4619168838811</v>
       </c>
     </row>
     <row r="5802" spans="1:2">
@@ -46847,7 +46847,7 @@
         <v>5813</v>
       </c>
       <c r="B5813">
-        <v>66.41517263935675</v>
+        <v>66.41517263935674</v>
       </c>
     </row>
     <row r="5814" spans="1:2">
@@ -46863,7 +46863,7 @@
         <v>5815</v>
       </c>
       <c r="B5815">
-        <v>47.92004553151657</v>
+        <v>47.92004553151656</v>
       </c>
     </row>
     <row r="5816" spans="1:2">
@@ -47175,7 +47175,7 @@
         <v>5854</v>
       </c>
       <c r="B5854">
-        <v>8.017661633073889</v>
+        <v>8.017661633073887</v>
       </c>
     </row>
     <row r="5855" spans="1:2">
@@ -47191,7 +47191,7 @@
         <v>5856</v>
       </c>
       <c r="B5856">
-        <v>3.116810496163408</v>
+        <v>3.116810496163407</v>
       </c>
     </row>
     <row r="5857" spans="1:2">
@@ -47271,7 +47271,7 @@
         <v>5866</v>
       </c>
       <c r="B5866">
-        <v>88.98428025562829</v>
+        <v>88.98428025562828</v>
       </c>
     </row>
     <row r="5867" spans="1:2">
@@ -47287,7 +47287,7 @@
         <v>5868</v>
       </c>
       <c r="B5868">
-        <v>83.12989318732926</v>
+        <v>83.12989318732924</v>
       </c>
     </row>
     <row r="5869" spans="1:2">
@@ -47471,7 +47471,7 @@
         <v>5891</v>
       </c>
       <c r="B5891">
-        <v>0.8486868365970702</v>
+        <v>0.8486868365970701</v>
       </c>
     </row>
     <row r="5892" spans="1:2">
@@ -47631,7 +47631,7 @@
         <v>5911</v>
       </c>
       <c r="B5911">
-        <v>46.87847106011415</v>
+        <v>46.87847106011414</v>
       </c>
     </row>
     <row r="5912" spans="1:2">
@@ -47647,7 +47647,7 @@
         <v>5913</v>
       </c>
       <c r="B5913">
-        <v>91.50381197499988</v>
+        <v>91.50381197499986</v>
       </c>
     </row>
     <row r="5914" spans="1:2">
@@ -47839,7 +47839,7 @@
         <v>5937</v>
       </c>
       <c r="B5937">
-        <v>80.36066494301821</v>
+        <v>80.36066494301819</v>
       </c>
     </row>
     <row r="5938" spans="1:2">
@@ -48103,7 +48103,7 @@
         <v>5970</v>
       </c>
       <c r="B5970">
-        <v>86.44687120289836</v>
+        <v>86.44687120289835</v>
       </c>
     </row>
     <row r="5971" spans="1:2">
@@ -48215,7 +48215,7 @@
         <v>5984</v>
       </c>
       <c r="B5984">
-        <v>59.38234692460045</v>
+        <v>59.38234692460044</v>
       </c>
     </row>
     <row r="5985" spans="1:2">
@@ -48511,7 +48511,7 @@
         <v>6021</v>
       </c>
       <c r="B6021">
-        <v>4.123538821068995</v>
+        <v>4.123538821068994</v>
       </c>
     </row>
     <row r="6022" spans="1:2">
@@ -48639,7 +48639,7 @@
         <v>6037</v>
       </c>
       <c r="B6037">
-        <v>37.22764175699605</v>
+        <v>37.22764175699604</v>
       </c>
     </row>
     <row r="6038" spans="1:2">
@@ -48671,7 +48671,7 @@
         <v>6041</v>
       </c>
       <c r="B6041">
-        <v>36.84811476192961</v>
+        <v>36.8481147619296</v>
       </c>
     </row>
     <row r="6042" spans="1:2">
@@ -48679,7 +48679,7 @@
         <v>6042</v>
       </c>
       <c r="B6042">
-        <v>20.77475087496359</v>
+        <v>20.77475087496358</v>
       </c>
     </row>
     <row r="6043" spans="1:2">
@@ -48815,7 +48815,7 @@
         <v>6059</v>
       </c>
       <c r="B6059">
-        <v>97.92441228999265</v>
+        <v>97.92441228999262</v>
       </c>
     </row>
     <row r="6060" spans="1:2">
@@ -48863,7 +48863,7 @@
         <v>6065</v>
       </c>
       <c r="B6065">
-        <v>97.13224127249102</v>
+        <v>97.132241272491</v>
       </c>
     </row>
     <row r="6066" spans="1:2">
@@ -48975,7 +48975,7 @@
         <v>6079</v>
       </c>
       <c r="B6079">
-        <v>59.39729354757218</v>
+        <v>59.39729354757217</v>
       </c>
     </row>
     <row r="6080" spans="1:2">
@@ -49615,7 +49615,7 @@
         <v>6159</v>
       </c>
       <c r="B6159">
-        <v>122.4254441931198</v>
+        <v>122.4254441931197</v>
       </c>
     </row>
     <row r="6160" spans="1:2">
@@ -50015,7 +50015,7 @@
         <v>6209</v>
       </c>
       <c r="B6209">
-        <v>66.16811375376524</v>
+        <v>66.16811375376523</v>
       </c>
     </row>
     <row r="6210" spans="1:2">
@@ -50039,7 +50039,7 @@
         <v>6212</v>
       </c>
       <c r="B6212">
-        <v>9.869313762440134</v>
+        <v>9.869313762440132</v>
       </c>
     </row>
     <row r="6213" spans="1:2">
@@ -50047,7 +50047,7 @@
         <v>6213</v>
       </c>
       <c r="B6213">
-        <v>3.899603240427861</v>
+        <v>3.89960324042786</v>
       </c>
     </row>
     <row r="6214" spans="1:2">
@@ -50111,7 +50111,7 @@
         <v>6221</v>
       </c>
       <c r="B6221">
-        <v>144.6484349127323</v>
+        <v>144.6484349127322</v>
       </c>
     </row>
     <row r="6222" spans="1:2">
@@ -50135,7 +50135,7 @@
         <v>6224</v>
       </c>
       <c r="B6224">
-        <v>95.34919707327541</v>
+        <v>95.34919707327538</v>
       </c>
     </row>
     <row r="6225" spans="1:2">
@@ -50335,7 +50335,7 @@
         <v>6249</v>
       </c>
       <c r="B6249">
-        <v>75.60910419320182</v>
+        <v>75.6091041932018</v>
       </c>
     </row>
     <row r="6250" spans="1:2">
@@ -50367,7 +50367,7 @@
         <v>6253</v>
       </c>
       <c r="B6253">
-        <v>101.0432742834267</v>
+        <v>101.0432742834266</v>
       </c>
     </row>
     <row r="6254" spans="1:2">
@@ -50407,7 +50407,7 @@
         <v>6258</v>
       </c>
       <c r="B6258">
-        <v>84.57444033689103</v>
+        <v>84.57444033689102</v>
       </c>
     </row>
     <row r="6259" spans="1:2">
@@ -50719,7 +50719,7 @@
         <v>6297</v>
       </c>
       <c r="B6297">
-        <v>93.90142614228834</v>
+        <v>93.90142614228832</v>
       </c>
     </row>
     <row r="6298" spans="1:2">
@@ -50911,7 +50911,7 @@
         <v>6321</v>
       </c>
       <c r="B6321">
-        <v>63.70309324758466</v>
+        <v>63.70309324758465</v>
       </c>
     </row>
     <row r="6322" spans="1:2">
@@ -50919,7 +50919,7 @@
         <v>6322</v>
       </c>
       <c r="B6322">
-        <v>49.43580894347305</v>
+        <v>49.43580894347304</v>
       </c>
     </row>
     <row r="6323" spans="1:2">
@@ -50927,7 +50927,7 @@
         <v>6323</v>
       </c>
       <c r="B6323">
-        <v>46.81223700537669</v>
+        <v>46.81223700537668</v>
       </c>
     </row>
     <row r="6324" spans="1:2">
@@ -51487,7 +51487,7 @@
         <v>6393</v>
       </c>
       <c r="B6393">
-        <v>7.1688692909029</v>
+        <v>7.168869290902899</v>
       </c>
     </row>
     <row r="6394" spans="1:2">
@@ -51535,7 +51535,7 @@
         <v>6399</v>
       </c>
       <c r="B6399">
-        <v>50.55475416908207</v>
+        <v>50.55475416908206</v>
       </c>
     </row>
     <row r="6400" spans="1:2">
@@ -51703,7 +51703,7 @@
         <v>6420</v>
       </c>
       <c r="B6420">
-        <v>0.3104296362812568</v>
+        <v>0.3104296362812567</v>
       </c>
     </row>
     <row r="6421" spans="1:2">
@@ -51727,7 +51727,7 @@
         <v>6423</v>
       </c>
       <c r="B6423">
-        <v>51.22178385307529</v>
+        <v>51.22178385307528</v>
       </c>
     </row>
     <row r="6424" spans="1:2">
@@ -51743,7 +51743,7 @@
         <v>6425</v>
       </c>
       <c r="B6425">
-        <v>60.85473582283505</v>
+        <v>60.85473582283504</v>
       </c>
     </row>
     <row r="6426" spans="1:2">
@@ -51927,7 +51927,7 @@
         <v>6448</v>
       </c>
       <c r="B6448">
-        <v>120.7968484312787</v>
+        <v>120.7968484312786</v>
       </c>
     </row>
     <row r="6449" spans="1:2">
@@ -52079,7 +52079,7 @@
         <v>6467</v>
       </c>
       <c r="B6467">
-        <v>56.36547365262056</v>
+        <v>56.36547365262055</v>
       </c>
     </row>
     <row r="6468" spans="1:2">
@@ -52223,7 +52223,7 @@
         <v>6485</v>
       </c>
       <c r="B6485">
-        <v>3.856932097198769</v>
+        <v>3.856932097198768</v>
       </c>
     </row>
     <row r="6486" spans="1:2">
@@ -52231,7 +52231,7 @@
         <v>6486</v>
       </c>
       <c r="B6486">
-        <v>4.112695192638525</v>
+        <v>4.112695192638524</v>
       </c>
     </row>
     <row r="6487" spans="1:2">
@@ -52271,7 +52271,7 @@
         <v>6491</v>
       </c>
       <c r="B6491">
-        <v>30.50898819568471</v>
+        <v>30.5089881956847</v>
       </c>
     </row>
     <row r="6492" spans="1:2">
@@ -52503,7 +52503,7 @@
         <v>6520</v>
       </c>
       <c r="B6520">
-        <v>16.878811022519</v>
+        <v>16.87881102251899</v>
       </c>
     </row>
     <row r="6521" spans="1:2">
@@ -52695,7 +52695,7 @@
         <v>6544</v>
       </c>
       <c r="B6544">
-        <v>11.39779645747452</v>
+        <v>11.39779645747451</v>
       </c>
     </row>
     <row r="6545" spans="1:2">
@@ -52823,7 +52823,7 @@
         <v>6560</v>
       </c>
       <c r="B6560">
-        <v>9.505700524773005</v>
+        <v>9.505700524772999</v>
       </c>
     </row>
     <row r="6561" spans="1:2">
@@ -52887,7 +52887,7 @@
         <v>6568</v>
       </c>
       <c r="B6568">
-        <v>52.86268859854016</v>
+        <v>52.86268859854015</v>
       </c>
     </row>
     <row r="6569" spans="1:2">
@@ -53047,7 +53047,7 @@
         <v>6588</v>
       </c>
       <c r="B6588">
-        <v>77.07211481819925</v>
+        <v>77.07211481819924</v>
       </c>
     </row>
     <row r="6589" spans="1:2">
@@ -53231,7 +53231,7 @@
         <v>6611</v>
       </c>
       <c r="B6611">
-        <v>111.2506454889627</v>
+        <v>111.2506454889626</v>
       </c>
     </row>
     <row r="6612" spans="1:2">
@@ -53287,7 +53287,7 @@
         <v>6618</v>
       </c>
       <c r="B6618">
-        <v>88.15371693206204</v>
+        <v>88.15371693206203</v>
       </c>
     </row>
     <row r="6619" spans="1:2">
@@ -53423,7 +53423,7 @@
         <v>6635</v>
       </c>
       <c r="B6635">
-        <v>115.9969309600832</v>
+        <v>115.9969309600831</v>
       </c>
     </row>
     <row r="6636" spans="1:2">
@@ -53583,7 +53583,7 @@
         <v>6655</v>
       </c>
       <c r="B6655">
-        <v>6.898892250088069</v>
+        <v>6.898892250088068</v>
       </c>
     </row>
     <row r="6656" spans="1:2">
@@ -53671,7 +53671,7 @@
         <v>6666</v>
       </c>
       <c r="B6666">
-        <v>78.99817768428161</v>
+        <v>78.9981776842816</v>
       </c>
     </row>
     <row r="6667" spans="1:2">
@@ -54415,7 +54415,7 @@
         <v>6759</v>
       </c>
       <c r="B6759">
-        <v>51.32875478218668</v>
+        <v>51.32875478218667</v>
       </c>
     </row>
     <row r="6760" spans="1:2">
@@ -54599,7 +54599,7 @@
         <v>6782</v>
       </c>
       <c r="B6782">
-        <v>61.34123374701288</v>
+        <v>61.34123374701287</v>
       </c>
     </row>
     <row r="6783" spans="1:2">
@@ -54767,7 +54767,7 @@
         <v>6803</v>
       </c>
       <c r="B6803">
-        <v>77.64506869878218</v>
+        <v>77.64506869878217</v>
       </c>
     </row>
     <row r="6804" spans="1:2">
@@ -54807,7 +54807,7 @@
         <v>6808</v>
       </c>
       <c r="B6808">
-        <v>81.17071329387817</v>
+        <v>81.17071329387815</v>
       </c>
     </row>
     <row r="6809" spans="1:2">
@@ -55151,7 +55151,7 @@
         <v>6851</v>
       </c>
       <c r="B6851">
-        <v>7.016706807629929</v>
+        <v>7.016706807629928</v>
       </c>
     </row>
     <row r="6852" spans="1:2">
@@ -55159,7 +55159,7 @@
         <v>6852</v>
       </c>
       <c r="B6852">
-        <v>7.092260521396824</v>
+        <v>7.092260521396823</v>
       </c>
     </row>
     <row r="6853" spans="1:2">
@@ -55207,7 +55207,7 @@
         <v>6858</v>
       </c>
       <c r="B6858">
-        <v>3.639297543888854</v>
+        <v>3.639297543888853</v>
       </c>
     </row>
     <row r="6859" spans="1:2">
@@ -55383,7 +55383,7 @@
         <v>6880</v>
       </c>
       <c r="B6880">
-        <v>7.38070103764732</v>
+        <v>7.380701037647319</v>
       </c>
     </row>
     <row r="6881" spans="1:2">
@@ -55735,7 +55735,7 @@
         <v>6924</v>
       </c>
       <c r="B6924">
-        <v>61.70288340872098</v>
+        <v>61.70288340872097</v>
       </c>
     </row>
     <row r="6925" spans="1:2">
@@ -55743,7 +55743,7 @@
         <v>6925</v>
       </c>
       <c r="B6925">
-        <v>65.33227515150308</v>
+        <v>65.33227515150307</v>
       </c>
     </row>
     <row r="6926" spans="1:2">
@@ -55951,7 +55951,7 @@
         <v>6951</v>
       </c>
       <c r="B6951">
-        <v>51.62475653123464</v>
+        <v>51.62475653123463</v>
       </c>
     </row>
     <row r="6952" spans="1:2">
@@ -56135,7 +56135,7 @@
         <v>6974</v>
       </c>
       <c r="B6974">
-        <v>41.24799026535239</v>
+        <v>41.24799026535238</v>
       </c>
     </row>
     <row r="6975" spans="1:2">
@@ -56151,7 +56151,7 @@
         <v>6976</v>
       </c>
       <c r="B6976">
-        <v>71.98938379469554</v>
+        <v>71.98938379469553</v>
       </c>
     </row>
     <row r="6977" spans="1:2">
@@ -56311,7 +56311,7 @@
         <v>6996</v>
       </c>
       <c r="B6996">
-        <v>19.21678523343988</v>
+        <v>19.21678523343987</v>
       </c>
     </row>
     <row r="6997" spans="1:2">
@@ -56527,7 +56527,7 @@
         <v>7023</v>
       </c>
       <c r="B7023">
-        <v>1.55715383474662</v>
+        <v>1.557153834746619</v>
       </c>
     </row>
     <row r="7024" spans="1:2">
@@ -56703,7 +56703,7 @@
         <v>7045</v>
       </c>
       <c r="B7045">
-        <v>2.681013861673987</v>
+        <v>2.681013861673986</v>
       </c>
     </row>
     <row r="7046" spans="1:2">
@@ -56879,7 +56879,7 @@
         <v>7067</v>
       </c>
       <c r="B7067">
-        <v>97.40245277013678</v>
+        <v>97.40245277013676</v>
       </c>
     </row>
     <row r="7068" spans="1:2">
@@ -57031,7 +57031,7 @@
         <v>7086</v>
       </c>
       <c r="B7086">
-        <v>0.900592648254381</v>
+        <v>0.9005926482543809</v>
       </c>
     </row>
     <row r="7087" spans="1:2">
@@ -57047,7 +57047,7 @@
         <v>7088</v>
       </c>
       <c r="B7088">
-        <v>16.06975911319049</v>
+        <v>16.06975911319048</v>
       </c>
     </row>
     <row r="7089" spans="1:2">
@@ -57071,7 +57071,7 @@
         <v>7091</v>
       </c>
       <c r="B7091">
-        <v>96.33215733694554</v>
+        <v>96.33215733694551</v>
       </c>
     </row>
     <row r="7092" spans="1:2">
@@ -57223,7 +57223,7 @@
         <v>7110</v>
       </c>
       <c r="B7110">
-        <v>27.92902522814116</v>
+        <v>27.92902522814115</v>
       </c>
     </row>
     <row r="7111" spans="1:2">
@@ -57415,7 +57415,7 @@
         <v>7134</v>
       </c>
       <c r="B7134">
-        <v>67.26302715420402</v>
+        <v>67.26302715420401</v>
       </c>
     </row>
     <row r="7135" spans="1:2">
@@ -57511,7 +57511,7 @@
         <v>7146</v>
       </c>
       <c r="B7146">
-        <v>51.29856846520456</v>
+        <v>51.29856846520455</v>
       </c>
     </row>
     <row r="7147" spans="1:2">
@@ -57671,7 +57671,7 @@
         <v>7166</v>
       </c>
       <c r="B7166">
-        <v>53.80549812991371</v>
+        <v>53.8054981299137</v>
       </c>
     </row>
     <row r="7167" spans="1:2">
@@ -57687,7 +57687,7 @@
         <v>7168</v>
       </c>
       <c r="B7168">
-        <v>56.8496270084891</v>
+        <v>56.84962700848909</v>
       </c>
     </row>
     <row r="7169" spans="1:2">
@@ -57703,7 +57703,7 @@
         <v>7170</v>
       </c>
       <c r="B7170">
-        <v>7.402007302158</v>
+        <v>7.402007302157999</v>
       </c>
     </row>
     <row r="7171" spans="1:2">
@@ -58447,7 +58447,7 @@
         <v>7263</v>
       </c>
       <c r="B7263">
-        <v>53.49191211854607</v>
+        <v>53.49191211854606</v>
       </c>
     </row>
     <row r="7264" spans="1:2">
@@ -59599,7 +59599,7 @@
         <v>7407</v>
       </c>
       <c r="B7407">
-        <v>7.853659079838999</v>
+        <v>7.853659079838998</v>
       </c>
     </row>
     <row r="7408" spans="1:2">
@@ -59975,7 +59975,7 @@
         <v>7454</v>
       </c>
       <c r="B7454">
-        <v>4.480264889327584</v>
+        <v>4.480264889327583</v>
       </c>
     </row>
     <row r="7455" spans="1:2">
@@ -61079,7 +61079,7 @@
         <v>7592</v>
       </c>
       <c r="B7592">
-        <v>0.6514236511845053</v>
+        <v>0.6514236511845052</v>
       </c>
     </row>
     <row r="7593" spans="1:2">
@@ -65367,7 +65367,7 @@
         <v>8128</v>
       </c>
       <c r="B8128">
-        <v>68.18825242325789</v>
+        <v>68.18825242325788</v>
       </c>
     </row>
     <row r="8129" spans="1:2">
@@ -65527,7 +65527,7 @@
         <v>8148</v>
       </c>
       <c r="B8148">
-        <v>45.13030231449923</v>
+        <v>45.13030231449922</v>
       </c>
     </row>
     <row r="8149" spans="1:2">
@@ -65535,7 +65535,7 @@
         <v>8149</v>
       </c>
       <c r="B8149">
-        <v>56.9489780905953</v>
+        <v>56.94897809059529</v>
       </c>
     </row>
     <row r="8150" spans="1:2">
@@ -65575,7 +65575,7 @@
         <v>8154</v>
       </c>
       <c r="B8154">
-        <v>36.72590413880783</v>
+        <v>36.72590413880782</v>
       </c>
     </row>
     <row r="8155" spans="1:2">
@@ -65679,7 +65679,7 @@
         <v>8167</v>
       </c>
       <c r="B8167">
-        <v>6.627010247521938</v>
+        <v>6.627010247521937</v>
       </c>
     </row>
     <row r="8168" spans="1:2">
@@ -65687,7 +65687,7 @@
         <v>8168</v>
       </c>
       <c r="B8168">
-        <v>9.947182737412453</v>
+        <v>9.947182737412451</v>
       </c>
     </row>
     <row r="8169" spans="1:2">
@@ -65759,7 +65759,7 @@
         <v>8177</v>
       </c>
       <c r="B8177">
-        <v>52.36593318800918</v>
+        <v>52.36593318800917</v>
       </c>
     </row>
     <row r="8178" spans="1:2">
@@ -66479,7 +66479,7 @@
         <v>8267</v>
       </c>
       <c r="B8267">
-        <v>0.604274382484668</v>
+        <v>0.6042743824846679</v>
       </c>
     </row>
     <row r="8268" spans="1:2">
@@ -66487,7 +66487,7 @@
         <v>8268</v>
       </c>
       <c r="B8268">
-        <v>2.203205493792463</v>
+        <v>2.203205493792462</v>
       </c>
     </row>
     <row r="8269" spans="1:2">
@@ -66519,7 +66519,7 @@
         <v>8272</v>
       </c>
       <c r="B8272">
-        <v>6.147692563791308</v>
+        <v>6.147692563791307</v>
       </c>
     </row>
     <row r="8273" spans="1:2">
@@ -67063,7 +67063,7 @@
         <v>8340</v>
       </c>
       <c r="B8340">
-        <v>1.553871439113613</v>
+        <v>1.553871439113612</v>
       </c>
     </row>
     <row r="8341" spans="1:2">
@@ -67831,7 +67831,7 @@
         <v>8436</v>
       </c>
       <c r="B8436">
-        <v>0.9618063960995764</v>
+        <v>0.9618063960995762</v>
       </c>
     </row>
     <row r="8437" spans="1:2">
@@ -67839,7 +67839,7 @@
         <v>8437</v>
       </c>
       <c r="B8437">
-        <v>0.9942698750520936</v>
+        <v>0.9942698750520934</v>
       </c>
     </row>
     <row r="8438" spans="1:2">
